--- a/Voiz_project/data/1.RFD_Centroid.xlsx
+++ b/Voiz_project/data/1.RFD_Centroid.xlsx
@@ -447,7 +447,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -456,16 +456,16 @@
         <v>35</v>
       </c>
       <c r="F2">
-        <v>14.8</v>
+        <v>13.5</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>28</v>
       </c>
       <c r="I2">
-        <v>16.3</v>
+        <v>17.1</v>
       </c>
       <c r="J2">
         <v>7</v>
@@ -482,7 +482,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -491,22 +491,22 @@
         <v>35</v>
       </c>
       <c r="F3">
-        <v>16.2</v>
+        <v>15.1</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>28</v>
       </c>
       <c r="I3">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -517,7 +517,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>35</v>
       </c>
       <c r="F4">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>17.8</v>
+        <v>18.5</v>
       </c>
       <c r="J4">
         <v>7</v>
@@ -561,22 +561,22 @@
         <v>35</v>
       </c>
       <c r="F5">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -605,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <v>17.3</v>
+        <v>17.9</v>
       </c>
       <c r="J6">
         <v>7</v>
@@ -622,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -666,10 +666,10 @@
         <v>89</v>
       </c>
       <c r="F8">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>28</v>
@@ -739,13 +739,13 @@
         <v>7.5</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>28</v>
       </c>
       <c r="I10">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="I11">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="J11">
         <v>0</v>
